--- a/biology/Botanique/Spigelia_guianensis/Spigelia_guianensis.xlsx
+++ b/biology/Botanique/Spigelia_guianensis/Spigelia_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spigelia guianensis est une espèce herbacée sud-américaine appartenant à la famille des Loganiaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Spigelia guianensis est endémique du plateau des Guyanes.
 </t>
@@ -542,9 +556,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spigelia guianensis a le statut d'espèce déterminante ZNIEFF en Guyane[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spigelia guianensis a le statut d'espèce déterminante ZNIEFF en Guyane.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[1] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « MONTIRA Guianenſis. (Tabula 257.) 
 Herba annua, ſemi-pedalis. Caulis qnadrangularis, marginata. Folia Oppoſita, ſeſſilia, ovato-oblonga, acuta, glauca. Flores tres in bifurcatione ramorum, aut intra folia rerminalia, infimus ſeſſilis, alter pedunculo brevi, tertius longo pedunculo inſidens, omnes albidi. 
 Florebat Junio. 
